--- a/data/human/LSR1RoBVisuals/robtolerability.xlsx
+++ b/data/human/LSR1RoBVisuals/robtolerability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfriedrich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfrie\Documents\GitHub\LSR1_anhedonia_H\data\human\LSR1RoBVisuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE3DDF7-6C6B-48E7-8E89-66950BC22CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5D720-FD49-4883-B146-A398D785413A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="-8025" windowWidth="24765" windowHeight="15360" xr2:uid="{0679E534-A770-41E4-9FA9-2B65EFB732B9}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="18780" windowHeight="12792" xr2:uid="{0679E534-A770-41E4-9FA9-2B65EFB732B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tolerability" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="53">
   <si>
     <t>Study</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Zarate (2006)</t>
+  </si>
+  <si>
+    <t>Clayton (2006a)</t>
+  </si>
+  <si>
+    <t>Clayton (2006b)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +255,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -388,6 +400,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -552,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -702,18 +718,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0889CDA-8B8A-4353-9EAB-0EDD81E3128E}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="28.33203125" customWidth="1"/>
+    <col min="1" max="10" width="28.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -759,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -782,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -805,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -828,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -851,7 +867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -874,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -897,785 +913,831 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="B25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="B27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+      <c r="B30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="B33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+      <c r="B39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="B40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="20" t="s">
+      <c r="B41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+      <c r="B42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="B43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>12</v>
       </c>
     </row>
